--- a/src/output.xlsx
+++ b/src/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="98">
   <si>
     <t>site.ru/cat</t>
   </si>
@@ -25,97 +25,100 @@
     <t>Популярность фраз</t>
   </si>
   <si>
-    <t>course</t>
-  </si>
-  <si>
-    <t>python developer</t>
-  </si>
-  <si>
-    <t>python разработчик</t>
-  </si>
-  <si>
-    <t>course перевод</t>
-  </si>
-  <si>
-    <t>перевод на русский</t>
-  </si>
-  <si>
-    <t>online courses</t>
-  </si>
-  <si>
-    <t>английского на русский</t>
-  </si>
-  <si>
-    <t>reverso context</t>
-  </si>
-  <si>
-    <t>course перевод на русский</t>
-  </si>
-  <si>
-    <t>python разработчиком</t>
-  </si>
-  <si>
-    <t>python разработчиков</t>
-  </si>
-  <si>
-    <t>python разработчика</t>
-  </si>
-  <si>
-    <t>python developers</t>
-  </si>
-  <si>
-    <t>course с английского</t>
-  </si>
-  <si>
-    <t>перевод на русский примеры</t>
-  </si>
-  <si>
-    <t>русский примеры</t>
-  </si>
-  <si>
-    <t>хабр карьера</t>
-  </si>
-  <si>
-    <t>примеры reverso</t>
-  </si>
-  <si>
-    <t>русский примеры reverso</t>
-  </si>
-  <si>
-    <t>примеры reverso context</t>
-  </si>
-  <si>
-    <t>русский примеры reverso context</t>
-  </si>
-  <si>
-    <t>поиск работы</t>
-  </si>
-  <si>
-    <t>свежие вакансии</t>
-  </si>
-  <si>
-    <t>сегодня найдено</t>
-  </si>
-  <si>
-    <t>карьера поиск</t>
-  </si>
-  <si>
-    <t>junior python</t>
-  </si>
-  <si>
-    <t>become a python developer</t>
-  </si>
-  <si>
-    <t>хабр карьера поиск работы</t>
-  </si>
-  <si>
-    <t>хабр карьера поиск</t>
-  </si>
-  <si>
-    <t>become a python</t>
-  </si>
-  <si>
-    <t>вакансии и работа</t>
+    <t>автомобили</t>
+  </si>
+  <si>
+    <t>цена</t>
+  </si>
+  <si>
+    <t>продажа автомобилей</t>
+  </si>
+  <si>
+    <t>купить авто</t>
+  </si>
+  <si>
+    <t>новые автомобили</t>
+  </si>
+  <si>
+    <t>москве продажа</t>
+  </si>
+  <si>
+    <t>автомобилей в москве</t>
+  </si>
+  <si>
+    <t>такое цена</t>
+  </si>
+  <si>
+    <t>авто в москве</t>
+  </si>
+  <si>
+    <t>москве новые</t>
+  </si>
+  <si>
+    <t>авто с пробегом</t>
+  </si>
+  <si>
+    <t>сколько стоит</t>
+  </si>
+  <si>
+    <t>цена и стоимость</t>
+  </si>
+  <si>
+    <t>продажа новых</t>
+  </si>
+  <si>
+    <t>объявления о продаже</t>
+  </si>
+  <si>
+    <t>купить новый</t>
+  </si>
+  <si>
+    <t>новые и подержанные</t>
+  </si>
+  <si>
+    <t>автомобилей в москве новые</t>
+  </si>
+  <si>
+    <t>цена цена</t>
+  </si>
+  <si>
+    <t>каталог автомобилей</t>
+  </si>
+  <si>
+    <t>новые авто</t>
+  </si>
+  <si>
+    <t>автомобили с пробегом</t>
+  </si>
+  <si>
+    <t>продажа авто</t>
+  </si>
+  <si>
+    <t>официального дилера</t>
+  </si>
+  <si>
+    <t>москве новые и подержанные</t>
+  </si>
+  <si>
+    <t>того чтобы</t>
+  </si>
+  <si>
+    <t>купить автомобиль</t>
+  </si>
+  <si>
+    <t>новых автомобилей</t>
+  </si>
+  <si>
+    <t>частные объявления</t>
+  </si>
+  <si>
+    <t>чтобы купить</t>
+  </si>
+  <si>
+    <t>широкий выбор</t>
+  </si>
+  <si>
+    <t>major auto</t>
   </si>
   <si>
     <t>site.ru/cat2</t>
@@ -133,12 +136,12 @@
     <t>data engineering</t>
   </si>
   <si>
+    <t>extract transform load</t>
+  </si>
+  <si>
     <t>transform load</t>
   </si>
   <si>
-    <t>extract transform load</t>
-  </si>
-  <si>
     <t>data scientist</t>
   </si>
   <si>
@@ -151,151 +154,160 @@
     <t>инженер данных</t>
   </si>
   <si>
+    <t>данных data</t>
+  </si>
+  <si>
     <t>data warehouse</t>
   </si>
   <si>
     <t>data science</t>
   </si>
   <si>
+    <t>data analyst</t>
+  </si>
+  <si>
     <t>извлечение преобразование</t>
   </si>
   <si>
-    <t>data analyst</t>
+    <t>data from</t>
+  </si>
+  <si>
+    <t>extract transform and load</t>
   </si>
   <si>
     <t>transform and load</t>
   </si>
   <si>
-    <t>extract transform and load</t>
-  </si>
-  <si>
-    <t>данных data</t>
+    <t>данных data engineer</t>
+  </si>
+  <si>
+    <t>хранилища данных</t>
+  </si>
+  <si>
+    <t>engineer data</t>
+  </si>
+  <si>
+    <t>дата инженера</t>
+  </si>
+  <si>
+    <t>what is data</t>
   </si>
   <si>
     <t>data engineer data</t>
   </si>
   <si>
-    <t>engineer data</t>
-  </si>
-  <si>
-    <t>хранилища данных</t>
-  </si>
-  <si>
-    <t>data from</t>
-  </si>
-  <si>
-    <t>дата инженера</t>
-  </si>
-  <si>
-    <t>what is data</t>
-  </si>
-  <si>
     <t>загрузки данных</t>
   </si>
   <si>
-    <t>дата инженеры</t>
-  </si>
-  <si>
-    <t>преобразование загрузка</t>
+    <t>дата инженером</t>
+  </si>
+  <si>
+    <t>data engineer и data</t>
+  </si>
+  <si>
+    <t>engineer и data</t>
+  </si>
+  <si>
+    <t>профессия data engineer</t>
   </si>
   <si>
     <t>профессия data</t>
   </si>
   <si>
-    <t>профессия data engineer</t>
-  </si>
-  <si>
-    <t>извлечение преобразование загрузка</t>
-  </si>
-  <si>
-    <t>стать data</t>
-  </si>
-  <si>
-    <t>data engineer и data</t>
+    <t>data integration</t>
   </si>
   <si>
     <t>site.ru/cat3</t>
   </si>
   <si>
-    <t>pandas</t>
-  </si>
-  <si>
-    <t>data analytic</t>
-  </si>
-  <si>
-    <t>data analytics</t>
-  </si>
-  <si>
-    <t>data analysis</t>
-  </si>
-  <si>
-    <t>pandas pandas</t>
-  </si>
-  <si>
-    <t>аналитик данных</t>
-  </si>
-  <si>
-    <t>minutes to pandas</t>
-  </si>
-  <si>
-    <t>pandas dataframe</t>
-  </si>
-  <si>
-    <t>documentation pandas</t>
-  </si>
-  <si>
-    <t>data structures</t>
-  </si>
-  <si>
-    <t>minutes to pandas pandas</t>
-  </si>
-  <si>
-    <t>introduction to pandas</t>
-  </si>
-  <si>
-    <t>анализа данных</t>
-  </si>
-  <si>
-    <t>geared mainly</t>
-  </si>
-  <si>
-    <t>short introduction</t>
-  </si>
-  <si>
-    <t>pandas geared</t>
-  </si>
-  <si>
-    <t>labeled data</t>
-  </si>
-  <si>
-    <t>python pandas</t>
-  </si>
-  <si>
-    <t>pandas geared mainly</t>
-  </si>
-  <si>
-    <t>this is a short</t>
-  </si>
-  <si>
-    <t>mainly for new users</t>
-  </si>
-  <si>
-    <t>introduction to pandas geared</t>
-  </si>
-  <si>
-    <t>short introduction to pandas</t>
-  </si>
-  <si>
-    <t>what is data analytics</t>
-  </si>
-  <si>
-    <t>pandas dev pandas</t>
-  </si>
-  <si>
-    <t>working with</t>
-  </si>
-  <si>
-    <t>аналитика данных</t>
+    <t>лучшие обои</t>
+  </si>
+  <si>
+    <t>ремонт своими руками</t>
+  </si>
+  <si>
+    <t>своими руками</t>
+  </si>
+  <si>
+    <t>рабочий стол</t>
+  </si>
+  <si>
+    <t>рабочего стола</t>
+  </si>
+  <si>
+    <t>обои для рабочего</t>
+  </si>
+  <si>
+    <t>обои на рабочий</t>
+  </si>
+  <si>
+    <t>обои на рабочий стол</t>
+  </si>
+  <si>
+    <t>обои для рабочего стола</t>
+  </si>
+  <si>
+    <t>ремонт квартиры</t>
+  </si>
+  <si>
+    <t>квартиры своими</t>
+  </si>
+  <si>
+    <t>квартиры своими руками</t>
+  </si>
+  <si>
+    <t>ремонт квартиры своими</t>
+  </si>
+  <si>
+    <t>ремонт квартиры своими руками</t>
+  </si>
+  <si>
+    <t>сделать ремонт</t>
+  </si>
+  <si>
+    <t>картинки на рабочий</t>
+  </si>
+  <si>
+    <t>самые лучшие</t>
+  </si>
+  <si>
+    <t>самые лучшие обои</t>
+  </si>
+  <si>
+    <t>красивые обои</t>
+  </si>
+  <si>
+    <t>ремонт своими</t>
+  </si>
+  <si>
+    <t>картинки на рабочий стол</t>
+  </si>
+  <si>
+    <t>рабочего стола скачать</t>
+  </si>
+  <si>
+    <t>скачать обои</t>
+  </si>
+  <si>
+    <t>стола скачать</t>
+  </si>
+  <si>
+    <t>скачать бесплатно</t>
+  </si>
+  <si>
+    <t>обои и картинки</t>
+  </si>
+  <si>
+    <t>стол скачать</t>
+  </si>
+  <si>
+    <t>рабочий стол скачать</t>
+  </si>
+  <si>
+    <t>скачать самые</t>
+  </si>
+  <si>
+    <t>ремонт в квартире</t>
   </si>
 </sst>
 </file>
@@ -661,7 +673,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1">
         <v>100</v>
@@ -672,239 +684,239 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>44</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5">
-        <v>38</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6">
-        <v>33</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="B7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7">
-        <v>30</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="B8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8">
-        <v>28</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="B9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9">
-        <v>26</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="B10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10">
-        <v>24</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="B11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11">
-        <v>24</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="B12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C12">
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="B13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C13">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="B14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C14">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="B15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C15">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="B16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C16">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="2:3">
       <c r="B17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="2:3">
       <c r="B18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C18">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="2:3">
       <c r="B19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C19">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="2:3">
       <c r="B20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C20">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="2:3">
       <c r="B21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C21">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="2:3">
       <c r="B22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="2:3">
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="2:3">
       <c r="B24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C24">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="2:3">
       <c r="B25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C25">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="2:3">
       <c r="B26" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C26">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="2:3">
       <c r="B27" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C27">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="2:3">
       <c r="B28" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C28">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="2:3">
       <c r="B29" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C29">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="2:3">
       <c r="B30" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C30">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="2:3">
       <c r="B31" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C31">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B35" t="s">
         <v>1</v>
@@ -915,10 +927,10 @@
     </row>
     <row r="36" spans="1:3" s="1" customFormat="1">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C36" s="1">
         <v>100</v>
@@ -926,66 +938,66 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C37">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="B38" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C38">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="B39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C39">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="B40" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C40">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="B41" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C41">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="B42" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C42">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="B43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C43">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="B44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C44">
         <v>9</v>
@@ -993,15 +1005,15 @@
     </row>
     <row r="45" spans="1:3">
       <c r="B45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C45">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="B46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C46">
         <v>7</v>
@@ -1009,7 +1021,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="B47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C47">
         <v>7</v>
@@ -1017,15 +1029,15 @@
     </row>
     <row r="48" spans="1:3">
       <c r="B48" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C48">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="2:3">
       <c r="B49" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C49">
         <v>6</v>
@@ -1033,7 +1045,7 @@
     </row>
     <row r="50" spans="2:3">
       <c r="B50" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C50">
         <v>6</v>
@@ -1041,7 +1053,7 @@
     </row>
     <row r="51" spans="2:3">
       <c r="B51" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C51">
         <v>6</v>
@@ -1049,7 +1061,7 @@
     </row>
     <row r="52" spans="2:3">
       <c r="B52" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C52">
         <v>6</v>
@@ -1057,7 +1069,7 @@
     </row>
     <row r="53" spans="2:3">
       <c r="B53" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C53">
         <v>6</v>
@@ -1065,7 +1077,7 @@
     </row>
     <row r="54" spans="2:3">
       <c r="B54" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C54">
         <v>6</v>
@@ -1073,15 +1085,15 @@
     </row>
     <row r="55" spans="2:3">
       <c r="B55" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C55">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56" spans="2:3">
       <c r="B56" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C56">
         <v>5</v>
@@ -1089,7 +1101,7 @@
     </row>
     <row r="57" spans="2:3">
       <c r="B57" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C57">
         <v>5</v>
@@ -1097,7 +1109,7 @@
     </row>
     <row r="58" spans="2:3">
       <c r="B58" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C58">
         <v>5</v>
@@ -1105,7 +1117,7 @@
     </row>
     <row r="59" spans="2:3">
       <c r="B59" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C59">
         <v>5</v>
@@ -1113,31 +1125,31 @@
     </row>
     <row r="60" spans="2:3">
       <c r="B60" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C60">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61" spans="2:3">
       <c r="B61" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C61">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="2:3">
       <c r="B62" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C62">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="2:3">
       <c r="B63" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C63">
         <v>4</v>
@@ -1145,7 +1157,7 @@
     </row>
     <row r="64" spans="2:3">
       <c r="B64" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C64">
         <v>4</v>
@@ -1153,7 +1165,7 @@
     </row>
     <row r="65" spans="1:3">
       <c r="B65" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C65">
         <v>4</v>
@@ -1161,7 +1173,7 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B69" t="s">
         <v>1</v>
@@ -1172,10 +1184,10 @@
     </row>
     <row r="70" spans="1:3" s="1" customFormat="1">
       <c r="A70" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C70" s="1">
         <v>100</v>
@@ -1183,66 +1195,66 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C71">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="B72" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="C72">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="B73" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="C73">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="B74" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C74">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="B75" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="C75">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="B76" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C76">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="B77" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C77">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="B78" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C78">
         <v>28</v>
@@ -1250,55 +1262,55 @@
     </row>
     <row r="79" spans="1:3">
       <c r="B79" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C79">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="B80" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C80">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="81" spans="2:3">
       <c r="B81" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C81">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="82" spans="2:3">
       <c r="B82" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C82">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="83" spans="2:3">
       <c r="B83" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="C83">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84" spans="2:3">
       <c r="B84" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="C84">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85" spans="2:3">
       <c r="B85" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C85">
         <v>17</v>
@@ -1306,7 +1318,7 @@
     </row>
     <row r="86" spans="2:3">
       <c r="B86" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C86">
         <v>16</v>
@@ -1314,7 +1326,7 @@
     </row>
     <row r="87" spans="2:3">
       <c r="B87" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C87">
         <v>16</v>
@@ -1322,7 +1334,7 @@
     </row>
     <row r="88" spans="2:3">
       <c r="B88" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C88">
         <v>16</v>
@@ -1330,90 +1342,90 @@
     </row>
     <row r="89" spans="2:3">
       <c r="B89" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C89">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="90" spans="2:3">
       <c r="B90" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="C90">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="91" spans="2:3">
       <c r="B91" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C91">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="92" spans="2:3">
       <c r="B92" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C92">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="93" spans="2:3">
       <c r="B93" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C93">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="94" spans="2:3">
       <c r="B94" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C94">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="95" spans="2:3">
       <c r="B95" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C95">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" spans="2:3">
       <c r="B96" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C96">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="97" spans="2:3">
       <c r="B97" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C97">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="98" spans="2:3">
       <c r="B98" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C98">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="99" spans="2:3">
       <c r="B99" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C99">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
